--- a/reverseprimer-v3_24.xlsx
+++ b/reverseprimer-v3_24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_24" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R2209-TGAGACGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGACGAACGTCTCGTGGGCTCGG</t>
+    <t>R2209-TGTCCTAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCCTAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R2210-CTACTGGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACTGGATCGTCTCGTGGGCTCGG</t>
+    <t>R2210-CAAGAAGAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGAAGAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R2211-TTCGAGGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGAGGACTGTCTCGTGGGCTCGG</t>
+    <t>R2211-AACCACACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCACACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R2212-GGATCTGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATCTGAGTGTCTCGTGGGCTCGG</t>
+    <t>R2212-AGTCCACTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCCACTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R2213-AGTTGCTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTGCTGAAGTCTCGTGGGCTCGG</t>
+    <t>R2213-GTAGTCAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGTCAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R2214-AGTCATCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCATCTCAGTCTCGTGGGCTCGG</t>
+    <t>R2214-CAGACACGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGACACGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R2215-TGACAGTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACAGTGAGGTCTCGTGGGCTCGG</t>
+    <t>R2215-GTGTTCCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTTCCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R2216-TAGGTCCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGTCCTTCGTCTCGTGGGCTCGG</t>
+    <t>R2216-ACTGGTACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGGTACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R2217-TACCTAGCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCTAGCTGGTCTCGTGGGCTCGG</t>
+    <t>R2217-TACTCGTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCGTGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R2218-CTGAACACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGAACACTAGTCTCGTGGGCTCGG</t>
+    <t>R2218-TTCCTGTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCTGTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R2219-GCATCGTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATCGTCAAGTCTCGTGGGCTCGG</t>
+    <t>R2219-ACAGAACGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGAACGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R2220-TCTACCATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTACCATCAGTCTCGTGGGCTCGG</t>
+    <t>R2220-ACAACATGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACATGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R2221-AGCATGAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCATGAACTGTCTCGTGGGCTCGG</t>
+    <t>R2221-ATCCTTGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTTGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R2222-AGATGACACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATGACACAGTCTCGTGGGCTCGG</t>
+    <t>R2222-TGTGGACTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGGACTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R2223-TCTCCATGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCCATGTGGTCTCGTGGGCTCGG</t>
+    <t>R2223-CTGTTCTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTTCTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R2224-CCACATCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCACATCACTGTCTCGTGGGCTCGG</t>
+    <t>R2224-GAGAAGACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAAGACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R2225-TGATGTCTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATGTCTGCGTCTCGTGGGCTCGG</t>
+    <t>R2225-TCATCCATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATCCATCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R2226-TCTGAGCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGAGCAAGGTCTCGTGGGCTCGG</t>
+    <t>R2226-GATCTAGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCTAGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R2227-CATGTGTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGTGTCTTGTCTCGTGGGCTCGG</t>
+    <t>R2227-GTAGATCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGATCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R2228-ACTGAAGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGAAGAACGTCTCGTGGGCTCGG</t>
+    <t>R2228-ATCGACATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGACATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R2229-GTAGCACGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGCACGTAGTCTCGTGGGCTCGG</t>
+    <t>R2229-CATGTTGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGTTGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R2230-GCACTAGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCACTAGTTGGTCTCGTGGGCTCGG</t>
+    <t>R2230-GTTGACACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGACACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R2231-ACTCTGAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCTGAAGCGTCTCGTGGGCTCGG</t>
+    <t>R2231-GATGCTTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGCTTCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R2232-TAGTGTCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTGTCAGAGTCTCGTGGGCTCGG</t>
+    <t>R2232-CAGAACATGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGAACATGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R2233-TGTGGACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGGACGATGTCTCGTGGGCTCGG</t>
+    <t>R2233-AGTGTCTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGTCTAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R2234-TCTTGAGAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTGAGAGGGTCTCGTGGGCTCGG</t>
+    <t>R2234-GGTAGTTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTAGTTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R2235-GAAGGACATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGGACATCGTCTCGTGGGCTCGG</t>
+    <t>R2235-AGAGACTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGACTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R2236-CAGTCTGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTCTGAGAGTCTCGTGGGCTCGG</t>
+    <t>R2236-TGGATCGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGATCGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R2237-GTTCTGTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCTGTACCGTCTCGTGGGCTCGG</t>
+    <t>R2237-AGTGGATCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGGATCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R2238-AGCTTCTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTTCTACGGTCTCGTGGGCTCGG</t>
+    <t>R2238-GACCTTGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACCTTGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R2239-GTGTCTACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTCTACTCGTCTCGTGGGCTCGG</t>
+    <t>R2239-ACATCGAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATCGAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R2240-TACAGGATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAGGATGCGTCTCGTGGGCTCGG</t>
+    <t>R2240-ACGAAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAAGACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R2241-CTCATGAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCATGAAGCGTCTCGTGGGCTCGG</t>
+    <t>R2241-ACTCCTGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCCTGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R2242-CATCTTGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCTTGCTAGTCTCGTGGGCTCGG</t>
+    <t>R2242-TGAGTACTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGTACTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R2243-AAGAAGCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAAGCTGAGTCTCGTGGGCTCGG</t>
+    <t>R2243-AACTGTGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGTGGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R2244-AAGCTCACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTCACCTGTCTCGTGGGCTCGG</t>
+    <t>R2244-CCTGTTGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTGTTGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R2245-TAGAGCTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAGCTCTTGTCTCGTGGGCTCGG</t>
+    <t>R2245-ACCTAGAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTAGAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R2246-TTGCACGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCACGATGGTCTCGTGGGCTCGG</t>
+    <t>R2246-AAGGTTCAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGTTCAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R2247-TCAGCAGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGCAGAACGTCTCGTGGGCTCGG</t>
+    <t>R2247-GTAGTTCTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGTTCTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R2248-ACACCTCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACCTCTACGTCTCGTGGGCTCGG</t>
+    <t>R2248-ACTGACTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGACTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R2249-TCGATCAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGATCAGAAGTCTCGTGGGCTCGG</t>
+    <t>R2249-AACGACTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGACTACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R2250-ACACCTGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACCTGTGAGTCTCGTGGGCTCGG</t>
+    <t>R2250-ACCTTCCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTTCCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R2251-GACTCATCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTCATCTCGTCTCGTGGGCTCGG</t>
+    <t>R2251-TCAACTACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAACTACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R2252-CAACGACCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACGACCTAGTCTCGTGGGCTCGG</t>
+    <t>R2252-AAGTACTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTACTGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R2253-TCACACCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACACCTCTGTCTCGTGGGCTCGG</t>
+    <t>R2253-CAACTTGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACTTGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R2254-GTGACAAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGACAAGACGTCTCGTGGGCTCGG</t>
+    <t>R2254-ACACAACTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACAACTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R2255-CGAACTAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAACTAGAGGTCTCGTGGGCTCGG</t>
+    <t>R2255-TCAGTGAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGTGAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R2256-ACTGATGAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGATGAGGGTCTCGTGGGCTCGG</t>
+    <t>R2256-CGTTGTGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTTGTGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R2257-AAGCAACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCAACGATGTCTCGTGGGCTCGG</t>
+    <t>R2257-GGATCCATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATCCATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R2258-ACGATCGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGATCGTCTGTCTCGTGGGCTCGG</t>
+    <t>R2258-TGTACCACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTACCACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R2259-TCTCCTTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCCTTCAAGTCTCGTGGGCTCGG</t>
+    <t>R2259-AGAACCATGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACCATGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R2260-TGTTCCTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTCCTGACGTCTCGTGGGCTCGG</t>
+    <t>R2260-ACCTAGTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTAGTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R2261-TCTCCAGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCCAGCTAGTCTCGTGGGCTCGG</t>
+    <t>R2261-ATGACAACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGACAACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R2262-CAGTTCCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTTCCAGAGTCTCGTGGGCTCGG</t>
+    <t>R2262-ACTCATGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCATGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R2263-TCAAGACGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAAGACGAAGTCTCGTGGGCTCGG</t>
+    <t>R2263-ACTCATGACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCATGACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R2264-TGAACTGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAACTGTTCGTCTCGTGGGCTCGG</t>
+    <t>R2264-ATGTGGTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTGGTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R2265-ACGACTTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGACTTCCAGTCTCGTGGGCTCGG</t>
+    <t>R2265-AGCTTCATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTTCATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R2266-GTACATCGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACATCGAAGTCTCGTGGGCTCGG</t>
+    <t>R2266-CTTCAACCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCAACCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R2267-CATCATCCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCATCCTCGTCTCGTGGGCTCGG</t>
+    <t>R2267-ATGACTCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGACTCTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R2268-AAGCTGTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTGTGTGGTCTCGTGGGCTCGG</t>
+    <t>R2268-CTACTGCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACTGCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R2269-TCTTGGATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTGGATGCGTCTCGTGGGCTCGG</t>
+    <t>R2269-CGAACTCCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAACTCCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R2270-AGTGAACTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGAACTGTGTCTCGTGGGCTCGG</t>
+    <t>R2270-ATCAGAGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAGAGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R2271-TGACCTGAGA</t>
+    <t>R2271-AGAAGCTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAAGCTAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R2272-CTTCAGACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCAGACTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R2273-TCTTCATCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTCATCGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R2274-CCTAGAGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTAGAGCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R2275-ACGTGACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTGACGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R2276-AGTACCAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTACCAACGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R2277-TGACCTGAGA</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTGACCTGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R2272-ATGCAGACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCAGACACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R2273-GTTCGTTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCGTTGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R2274-TGAGCTACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGCTACATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R2275-TGAGGATGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGGATGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R2276-TCAGGATGTG</t>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R2278-GACAAGATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACAAGATCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R2279-ACTAGCAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTAGCAAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R2280-TTCAGACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCAGACGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R2281-AGAGCAGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGCAGTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R2282-CATGAAGTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGAAGTGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R2283-TAGACTCAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGACTCAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R2284-GTTCGTACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCGTACTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R2285-ACTAGAGACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTAGAGACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R2286-CTTGTCTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGTCTTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R2287-GTTCCACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCCACGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>R2288-TCAGGATGTG</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTCAGGATGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R2277-AGAGAAGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGAAGGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R2278-ATCGACACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGACACACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R2279-TGATGGATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATGGATCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R2280-CCTGTTGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTGTTGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R2281-ACAGTACTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTACTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R2282-TCAAGCTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAAGCTACGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R2283-TCTACTGAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTACTGAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R2284-GCTACTACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTACTACATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R2285-CTGACAGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGACAGTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R2286-CCAACTTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCAACTTGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R2287-CTTGACTCGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGACTCGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>R2288-TCATGAGCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATGAGCTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R2289-ATCTGAGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTGAGTGAGTCTCGTGGGCTCGG</t>
+    <t>R2289-TGAAGCATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAAGCATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R2290-CTCTTGCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTTGCTCTGTCTCGTGGGCTCGG</t>
+    <t>R2290-TCTAGTCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTAGTCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R2291-TTCCACTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCACTGTGGTCTCGTGGGCTCGG</t>
+    <t>R2291-TGAGAGTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGAGTCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R2292-AACCTTGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTTGAAGGTCTCGTGGGCTCGG</t>
+    <t>R2292-GTGTGCTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTGCTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R2293-CAGACCTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGACCTTGAGTCTCGTGGGCTCGG</t>
+    <t>R2293-TCGTGTAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTGTAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R2294-CTCGTTGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCGTTGTTGGTCTCGTGGGCTCGG</t>
+    <t>R2294-ACAGTTCGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTTCGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R2295-GTAGACTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGACTGCAGTCTCGTGGGCTCGG</t>
+    <t>R2295-ACCACTGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCACTGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R2296-ATCCAAGGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCAAGGACGTCTCGTGGGCTCGG</t>
+    <t>R2296-TCACTCGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACTCGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R2297-GAGATGTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGATGTCGAGTCTCGTGGGCTCGG</t>
+    <t>R2297-CGATCTCCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGATCTCCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R2298-TCAGCAAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGCAAGGTGTCTCGTGGGCTCGG</t>
+    <t>R2298-TACGAACTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGAACTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R2299-GAAGACAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGACAGAGGTCTCGTGGGCTCGG</t>
+    <t>R2299-TAGCAGCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCAGCTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R2300-TAGGTAGTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGTAGTCCGTCTCGTGGGCTCGG</t>
+    <t>R2300-GAACAGCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACAGCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R2301-ACTTGCTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTGCTAGGGTCTCGTGGGCTCGG</t>
+    <t>R2301-ACGTTCAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTTCAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R2302-GAACGACGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACGACGAAGTCTCGTGGGCTCGG</t>
+    <t>R2302-AACCATCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCATCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R2303-TCACCAAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACCAAGACGTCTCGTGGGCTCGG</t>
+    <t>R2303-GTACTGAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACTGAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R2304-CATGAACACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGAACACGGTCTCGTGGGCTCGG</t>
+    <t>R2304-GAACCAAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACCAAGCAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
